--- a/results/marginal_cost_of_demand_annual.xlsx
+++ b/results/marginal_cost_of_demand_annual.xlsx
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.066809163851487e-05</v>
+        <v>1.521354618397767e-05</v>
       </c>
     </row>
     <row r="3">
@@ -488,7 +488,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>221.0453352822775</v>
+        <v>221.0453352822776</v>
       </c>
     </row>
     <row r="4">
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1333.333366559469</v>
+        <v>1333.333376559469</v>
       </c>
     </row>
     <row r="9">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>4.149390153174203e-05</v>
+        <v>4.149390153174202e-05</v>
       </c>
     </row>
     <row r="27">
@@ -938,7 +938,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>210.5193623632992</v>
+        <v>210.5193623632991</v>
       </c>
     </row>
     <row r="29">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1460.317501484701</v>
+        <v>1460.3175014847</v>
       </c>
     </row>
     <row r="35">
@@ -1316,7 +1316,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>7.903600291784356e-05</v>
+        <v>7.903600291784355e-05</v>
       </c>
     </row>
     <row r="50">
@@ -1370,7 +1370,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>1.627285162019389e-05</v>
+        <v>1.379913486075848e-05</v>
       </c>
     </row>
     <row r="53">
@@ -1388,7 +1388,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>200.4946297338179</v>
+        <v>200.4946279197591</v>
       </c>
     </row>
     <row r="54">
@@ -1478,7 +1478,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>1209.372681686527</v>
+        <v>1209.37267715138</v>
       </c>
     </row>
     <row r="59">
@@ -1568,7 +1568,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>1195.767244044802</v>
+        <v>1186.69694926024</v>
       </c>
     </row>
     <row r="64">
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1209.37270414367</v>
+        <v>1209.372704143671</v>
       </c>
     </row>
     <row r="65">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1209.37270414367</v>
+        <v>1209.372704143671</v>
       </c>
     </row>
     <row r="66">
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>1209.37270414367</v>
+        <v>1209.372704143671</v>
       </c>
     </row>
     <row r="67">
@@ -1640,7 +1640,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>1209.37270414367</v>
+        <v>1209.372704143671</v>
       </c>
     </row>
     <row r="68">
@@ -1658,7 +1658,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1209.37270414367</v>
+        <v>1209.372704143671</v>
       </c>
     </row>
     <row r="69">
@@ -1676,7 +1676,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>1241.118726819312</v>
+        <v>1241.118726819313</v>
       </c>
     </row>
     <row r="70">
@@ -1730,7 +1730,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>1209.37270414367</v>
+        <v>1209.372704143671</v>
       </c>
     </row>
     <row r="73">
@@ -1748,7 +1748,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>1209.37270414367</v>
+        <v>1209.372704143671</v>
       </c>
     </row>
     <row r="74">
@@ -1820,7 +1820,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>1.314203320073145e-05</v>
+        <v>1.54979539240021e-05</v>
       </c>
     </row>
     <row r="78">
@@ -1856,7 +1856,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>765.2112480906102</v>
+        <v>765.2112480906101</v>
       </c>
     </row>
     <row r="80">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1324.551021754016</v>
+        <v>1324.551020026341</v>
       </c>
     </row>
     <row r="85">
@@ -2270,7 +2270,7 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>8.77666539229389e-06</v>
+        <v>1.251622209590069e-05</v>
       </c>
     </row>
     <row r="103">
@@ -2288,7 +2288,7 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>181.8545394406365</v>
+        <v>181.8545377952315</v>
       </c>
     </row>
     <row r="104">
@@ -2378,7 +2378,7 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>1096.936672731761</v>
+        <v>1096.936668618249</v>
       </c>
     </row>
     <row r="109">
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>3.413713547889745e-05</v>
+        <v>3.413713547889746e-05</v>
       </c>
     </row>
     <row r="127">
@@ -2720,7 +2720,7 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>1.192021151990802e-05</v>
+        <v>1.405710106482463e-05</v>
       </c>
     </row>
     <row r="128">
@@ -2738,7 +2738,7 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>173.1947994667396</v>
+        <v>173.1948004069711</v>
       </c>
     </row>
     <row r="129">
@@ -2756,7 +2756,7 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>694.0691592660315</v>
+        <v>694.0691592660316</v>
       </c>
     </row>
     <row r="130">
@@ -2810,7 +2810,7 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>7.646432430104707e-06</v>
+        <v>1.548169409476903e-05</v>
       </c>
     </row>
     <row r="133">
@@ -2828,7 +2828,7 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1044.701593077106</v>
+        <v>1044.701595427685</v>
       </c>
     </row>
     <row r="134">
@@ -2918,7 +2918,7 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>1032.94870449776</v>
+        <v>1032.948704497761</v>
       </c>
     </row>
     <row r="139">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1072.125020467514</v>
+        <v>1072.125020467515</v>
       </c>
     </row>
     <row r="145">
@@ -3116,7 +3116,7 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>6.502311519805596e-05</v>
+        <v>6.502311519805597e-05</v>
       </c>
     </row>
     <row r="150">
@@ -3170,7 +3170,7 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>7.282316600145435e-06</v>
+        <v>1.338771529988532e-05</v>
       </c>
     </row>
     <row r="153">
@@ -3188,7 +3188,7 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>164.9474265719739</v>
+        <v>164.9474280644048</v>
       </c>
     </row>
     <row r="154">
@@ -3206,7 +3206,7 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>661.0182469204818</v>
+        <v>661.0182469204821</v>
       </c>
     </row>
     <row r="155">
@@ -3278,7 +3278,7 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>994.9538944386746</v>
+        <v>994.9538981697518</v>
       </c>
     </row>
     <row r="159">
@@ -3314,7 +3314,7 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>1174.400932772355</v>
+        <v>1174.400932772356</v>
       </c>
     </row>
     <row r="161">
@@ -3368,7 +3368,7 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>976.2985169850059</v>
+        <v>983.7606709513511</v>
       </c>
     </row>
     <row r="164">
@@ -3386,7 +3386,7 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>994.9539166452992</v>
+        <v>994.9539166452994</v>
       </c>
     </row>
     <row r="165">
@@ -3404,7 +3404,7 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>994.9539166452992</v>
+        <v>994.9539166452994</v>
       </c>
     </row>
     <row r="166">
@@ -3422,7 +3422,7 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>994.9539166452992</v>
+        <v>994.9539166452994</v>
       </c>
     </row>
     <row r="167">
@@ -3440,7 +3440,7 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>994.9539166452992</v>
+        <v>994.9539166452994</v>
       </c>
     </row>
     <row r="168">
@@ -3458,7 +3458,7 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>994.9539166452992</v>
+        <v>994.9539166452994</v>
       </c>
     </row>
     <row r="169">
@@ -3530,7 +3530,7 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>994.9539166452992</v>
+        <v>994.9539166452994</v>
       </c>
     </row>
     <row r="173">
@@ -3548,7 +3548,7 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>994.9539166452992</v>
+        <v>994.9539166452994</v>
       </c>
     </row>
     <row r="174">
@@ -3638,7 +3638,7 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>157.0927872110354</v>
+        <v>157.092788632398</v>
       </c>
     </row>
     <row r="179">
@@ -3656,7 +3656,7 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>629.5411875430365</v>
+        <v>629.5411875430366</v>
       </c>
     </row>
     <row r="180">
@@ -3728,7 +3728,7 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>947.5751375600074</v>
+        <v>947.5751411134141</v>
       </c>
     </row>
     <row r="184">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>1089.71140216436</v>
+        <v>1089.711403585723</v>
       </c>
     </row>
     <row r="185">
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>936.9149247149419</v>
+        <v>936.9149247149421</v>
       </c>
     </row>
     <row r="189">
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>947.5751587091736</v>
+        <v>947.5751587091737</v>
       </c>
     </row>
     <row r="190">
@@ -3854,7 +3854,7 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>947.5751587091736</v>
+        <v>947.5751587091737</v>
       </c>
     </row>
     <row r="191">
@@ -3872,7 +3872,7 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>947.5751587091736</v>
+        <v>947.5751587091737</v>
       </c>
     </row>
     <row r="192">
@@ -3890,7 +3890,7 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>947.5751587091736</v>
+        <v>947.5751587091737</v>
       </c>
     </row>
     <row r="193">
@@ -3908,7 +3908,7 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>947.5751587091736</v>
+        <v>947.5751587091737</v>
       </c>
     </row>
     <row r="194">
@@ -3926,7 +3926,7 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>972.4489981569105</v>
+        <v>972.4489981569108</v>
       </c>
     </row>
     <row r="195">
@@ -3944,7 +3944,7 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>2.808470584086384e-05</v>
+        <v>2.808470584086383e-05</v>
       </c>
     </row>
     <row r="196">
@@ -3980,7 +3980,7 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>947.5751587091736</v>
+        <v>947.5751587091737</v>
       </c>
     </row>
     <row r="198">
@@ -3998,7 +3998,7 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>947.5751587091736</v>
+        <v>947.5751587091737</v>
       </c>
     </row>
     <row r="199">
@@ -4070,7 +4070,7 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>7.220584338677522e-06</v>
+        <v>1.214305242617011e-05</v>
       </c>
     </row>
     <row r="203">
@@ -4088,7 +4088,7 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>149.6121782966357</v>
+        <v>149.6121782966358</v>
       </c>
     </row>
     <row r="204">
@@ -4106,7 +4106,7 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>599.5630357556981</v>
+        <v>599.5630357556983</v>
       </c>
     </row>
     <row r="205">
@@ -4178,7 +4178,7 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>902.4525119624836</v>
+        <v>902.4525119624838</v>
       </c>
     </row>
     <row r="209">
@@ -4268,7 +4268,7 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>892.2999283004975</v>
+        <v>892.2999283004976</v>
       </c>
     </row>
     <row r="214">
@@ -4358,7 +4358,7 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>902.4525321045467</v>
+        <v>902.4525321045468</v>
       </c>
     </row>
     <row r="219">
@@ -4376,7 +4376,7 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>926.1419030071057</v>
+        <v>926.1419030071058</v>
       </c>
     </row>
     <row r="220">
@@ -4394,7 +4394,7 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>2.674733889608651e-05</v>
+        <v>2.67473388960865e-05</v>
       </c>
     </row>
     <row r="221">
@@ -4412,7 +4412,7 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>1037.820397741882</v>
+        <v>1037.820397741883</v>
       </c>
     </row>
     <row r="222">
@@ -4736,7 +4736,7 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>859.4786020042033</v>
+        <v>859.4786020042031</v>
       </c>
     </row>
     <row r="240">
@@ -4754,7 +4754,7 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>859.4786020042033</v>
+        <v>859.4786020042031</v>
       </c>
     </row>
     <row r="241">
@@ -4772,7 +4772,7 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>859.4786020042033</v>
+        <v>859.4786020042031</v>
       </c>
     </row>
     <row r="242">
@@ -4970,7 +4970,7 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>6.549282846874136e-06</v>
+        <v>1.101410650899862e-05</v>
       </c>
     </row>
     <row r="253">
@@ -4988,7 +4988,7 @@
         </is>
       </c>
       <c r="D253" t="n">
-        <v>135.7026560513586</v>
+        <v>135.7026580158811</v>
       </c>
     </row>
     <row r="254">
@@ -5006,7 +5006,7 @@
         </is>
       </c>
       <c r="D254" t="n">
-        <v>543.8213476240433</v>
+        <v>543.8213476240434</v>
       </c>
     </row>
     <row r="255">
@@ -5078,7 +5078,7 @@
         </is>
       </c>
       <c r="D258" t="n">
-        <v>818.5510312584307</v>
+        <v>818.551036169737</v>
       </c>
     </row>
     <row r="259">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="D259" t="n">
-        <v>941.3336819661852</v>
+        <v>941.3336819661854</v>
       </c>
     </row>
     <row r="260">
@@ -5114,7 +5114,7 @@
         </is>
       </c>
       <c r="D260" t="n">
-        <v>966.182553789552</v>
+        <v>966.1825537895526</v>
       </c>
     </row>
     <row r="261">
@@ -5168,7 +5168,7 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>809.3423385944817</v>
+        <v>809.3423385944819</v>
       </c>
     </row>
     <row r="264">
@@ -5186,7 +5186,7 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>818.5510495278756</v>
+        <v>818.551049527876</v>
       </c>
     </row>
     <row r="265">
@@ -5204,7 +5204,7 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>818.5510495278756</v>
+        <v>818.551049527876</v>
       </c>
     </row>
     <row r="266">
@@ -5222,7 +5222,7 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>818.5510495278756</v>
+        <v>818.551049527876</v>
       </c>
     </row>
     <row r="267">
@@ -5240,7 +5240,7 @@
         </is>
       </c>
       <c r="D267" t="n">
-        <v>818.5510495278756</v>
+        <v>818.551049527876</v>
       </c>
     </row>
     <row r="268">
@@ -5258,7 +5258,7 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>818.5510495278756</v>
+        <v>818.551049527876</v>
       </c>
     </row>
     <row r="269">
@@ -5276,7 +5276,7 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>840.0380072626002</v>
+        <v>840.0380072626004</v>
       </c>
     </row>
     <row r="270">
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>941.3336940964975</v>
+        <v>941.3336940964979</v>
       </c>
     </row>
     <row r="272">
@@ -5330,7 +5330,7 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>818.5510495278756</v>
+        <v>818.551049527876</v>
       </c>
     </row>
     <row r="273">
@@ -5348,7 +5348,7 @@
         </is>
       </c>
       <c r="D273" t="n">
-        <v>818.5510495278756</v>
+        <v>818.551049527876</v>
       </c>
     </row>
     <row r="274">
@@ -5420,7 +5420,7 @@
         </is>
       </c>
       <c r="D277" t="n">
-        <v>8.895045367332973e-06</v>
+        <v>1.048962524666133e-05</v>
       </c>
     </row>
     <row r="278">
@@ -5438,7 +5438,7 @@
         </is>
       </c>
       <c r="D278" t="n">
-        <v>129.2406266813445</v>
+        <v>129.2406248103707</v>
       </c>
     </row>
     <row r="279">
@@ -5528,7 +5528,7 @@
         </is>
       </c>
       <c r="D283" t="n">
-        <v>779.5724153988606</v>
+        <v>779.5724107214261</v>
       </c>
     </row>
     <row r="284">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>896.5082685381924</v>
+        <v>896.5082685381922</v>
       </c>
     </row>
     <row r="285">
@@ -5564,7 +5564,7 @@
         </is>
       </c>
       <c r="D285" t="n">
-        <v>920.1738607509387</v>
+        <v>920.1738607509384</v>
       </c>
     </row>
     <row r="286">
@@ -5618,7 +5618,7 @@
         </is>
       </c>
       <c r="D288" t="n">
-        <v>770.8022272319366</v>
+        <v>800.036191686178</v>
       </c>
     </row>
     <row r="289">
@@ -5636,7 +5636,7 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>779.5724281208977</v>
+        <v>779.5724281208975</v>
       </c>
     </row>
     <row r="290">
@@ -5654,7 +5654,7 @@
         </is>
       </c>
       <c r="D290" t="n">
-        <v>779.5724281208977</v>
+        <v>779.5724281208975</v>
       </c>
     </row>
     <row r="291">
@@ -5672,7 +5672,7 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>779.5724281208977</v>
+        <v>779.5724281208975</v>
       </c>
     </row>
     <row r="292">
@@ -5690,7 +5690,7 @@
         </is>
       </c>
       <c r="D292" t="n">
-        <v>779.5724281208977</v>
+        <v>779.5724281208975</v>
       </c>
     </row>
     <row r="293">
@@ -5708,7 +5708,7 @@
         </is>
       </c>
       <c r="D293" t="n">
-        <v>779.5724281208977</v>
+        <v>779.5724281208975</v>
       </c>
     </row>
     <row r="294">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="D294" t="n">
-        <v>800.0361973920639</v>
+        <v>800.0361973920636</v>
       </c>
     </row>
     <row r="295">
@@ -5762,7 +5762,7 @@
         </is>
       </c>
       <c r="D296" t="n">
-        <v>896.5082800908709</v>
+        <v>896.5082800908707</v>
       </c>
     </row>
     <row r="297">
@@ -5780,7 +5780,7 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>779.5724281208977</v>
+        <v>779.5724281208975</v>
       </c>
     </row>
     <row r="298">
@@ -5798,7 +5798,7 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>779.5724281208977</v>
+        <v>779.5724281208975</v>
       </c>
     </row>
     <row r="299">
@@ -5816,7 +5816,7 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>4.852124969811638e-05</v>
+        <v>4.852124969811637e-05</v>
       </c>
     </row>
     <row r="300">
@@ -5870,7 +5870,7 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>9.990119282543611e-06</v>
+        <v>8.471471778419031e-06</v>
       </c>
     </row>
     <row r="303">
@@ -5888,7 +5888,7 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>123.0863104574223</v>
+        <v>123.0863104574222</v>
       </c>
     </row>
     <row r="304">
@@ -5978,7 +5978,7 @@
         </is>
       </c>
       <c r="D308" t="n">
-        <v>742.449917758117</v>
+        <v>742.4499177581168</v>
       </c>
     </row>
     <row r="309">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="D309" t="n">
-        <v>853.8173986097071</v>
+        <v>853.817398609707</v>
       </c>
     </row>
     <row r="310">
@@ -6014,7 +6014,7 @@
         </is>
       </c>
       <c r="D310" t="n">
-        <v>876.3560578593567</v>
+        <v>876.3560578593566</v>
       </c>
     </row>
     <row r="311">
@@ -6068,7 +6068,7 @@
         </is>
       </c>
       <c r="D313" t="n">
-        <v>728.5289850878519</v>
+        <v>734.0973592696207</v>
       </c>
     </row>
     <row r="314">
@@ -6086,7 +6086,7 @@
         </is>
       </c>
       <c r="D314" t="n">
-        <v>742.449931544855</v>
+        <v>742.4499315448548</v>
       </c>
     </row>
     <row r="315">
@@ -6104,7 +6104,7 @@
         </is>
       </c>
       <c r="D315" t="n">
-        <v>742.449931544855</v>
+        <v>742.4499315448548</v>
       </c>
     </row>
     <row r="316">
@@ -6122,7 +6122,7 @@
         </is>
       </c>
       <c r="D316" t="n">
-        <v>742.449931544855</v>
+        <v>742.4499315448548</v>
       </c>
     </row>
     <row r="317">
@@ -6140,7 +6140,7 @@
         </is>
       </c>
       <c r="D317" t="n">
-        <v>742.449931544855</v>
+        <v>742.4499315448548</v>
       </c>
     </row>
     <row r="318">
@@ -6158,7 +6158,7 @@
         </is>
       </c>
       <c r="D318" t="n">
-        <v>742.449931544855</v>
+        <v>742.4499315448548</v>
       </c>
     </row>
     <row r="319">
@@ -6176,7 +6176,7 @@
         </is>
       </c>
       <c r="D319" t="n">
-        <v>761.9392356126418</v>
+        <v>761.9392356126417</v>
       </c>
     </row>
     <row r="320">
@@ -6212,7 +6212,7 @@
         </is>
       </c>
       <c r="D321" t="n">
-        <v>853.8174096122581</v>
+        <v>853.817409612258</v>
       </c>
     </row>
     <row r="322">
@@ -6230,7 +6230,7 @@
         </is>
       </c>
       <c r="D322" t="n">
-        <v>742.449931544855</v>
+        <v>742.4499315448548</v>
       </c>
     </row>
     <row r="323">
@@ -6248,7 +6248,7 @@
         </is>
       </c>
       <c r="D323" t="n">
-        <v>742.449931544855</v>
+        <v>742.4499315448548</v>
       </c>
     </row>
     <row r="324">
@@ -6266,7 +6266,7 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>4.621071399825048e-05</v>
+        <v>4.621071399825047e-05</v>
       </c>
     </row>
     <row r="325">
@@ -6320,7 +6320,7 @@
         </is>
       </c>
       <c r="D327" t="n">
-        <v>9.514399316702923e-06</v>
+        <v>8.06806836039575e-06</v>
       </c>
     </row>
     <row r="328">
@@ -6338,7 +6338,7 @@
         </is>
       </c>
       <c r="D328" t="n">
-        <v>117.2250586387476</v>
+        <v>117.225057578105</v>
       </c>
     </row>
     <row r="329">
@@ -6356,7 +6356,7 @@
         </is>
       </c>
       <c r="D329" t="n">
-        <v>469.7733269613356</v>
+        <v>469.7733269613357</v>
       </c>
     </row>
     <row r="330">
@@ -6428,7 +6428,7 @@
         </is>
       </c>
       <c r="D333" t="n">
-        <v>707.0951624202893</v>
+        <v>707.0951597686827</v>
       </c>
     </row>
     <row r="334">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="D334" t="n">
-        <v>813.1594272458638</v>
+        <v>813.1594261852212</v>
       </c>
     </row>
     <row r="335">
@@ -6518,7 +6518,7 @@
         </is>
       </c>
       <c r="D338" t="n">
-        <v>699.1403421606054</v>
+        <v>699.1403421606053</v>
       </c>
     </row>
     <row r="339">
@@ -6536,7 +6536,7 @@
         </is>
       </c>
       <c r="D339" t="n">
-        <v>707.0951728989094</v>
+        <v>707.0951728989095</v>
       </c>
     </row>
     <row r="340">
@@ -6554,7 +6554,7 @@
         </is>
       </c>
       <c r="D340" t="n">
-        <v>707.0951728989094</v>
+        <v>707.0951728989095</v>
       </c>
     </row>
     <row r="341">
@@ -6572,7 +6572,7 @@
         </is>
       </c>
       <c r="D341" t="n">
-        <v>707.0951728989094</v>
+        <v>707.0951728989095</v>
       </c>
     </row>
     <row r="342">
@@ -6590,7 +6590,7 @@
         </is>
       </c>
       <c r="D342" t="n">
-        <v>707.0951728989094</v>
+        <v>707.0951728989095</v>
       </c>
     </row>
     <row r="343">
@@ -6608,7 +6608,7 @@
         </is>
       </c>
       <c r="D343" t="n">
-        <v>707.0951728989094</v>
+        <v>707.0951728989095</v>
       </c>
     </row>
     <row r="344">
@@ -6626,7 +6626,7 @@
         </is>
       </c>
       <c r="D344" t="n">
-        <v>725.6564148682587</v>
+        <v>725.6564148682588</v>
       </c>
     </row>
     <row r="345">
@@ -6662,7 +6662,7 @@
         </is>
       </c>
       <c r="D346" t="n">
-        <v>813.1594377244837</v>
+        <v>813.1594377244838</v>
       </c>
     </row>
     <row r="347">
@@ -6680,7 +6680,7 @@
         </is>
       </c>
       <c r="D347" t="n">
-        <v>707.0951728989093</v>
+        <v>707.0951728989095</v>
       </c>
     </row>
     <row r="348">
@@ -6698,7 +6698,7 @@
         </is>
       </c>
       <c r="D348" t="n">
-        <v>707.0951728989094</v>
+        <v>707.0951728989095</v>
       </c>
     </row>
     <row r="349">
@@ -6770,7 +6770,7 @@
         </is>
       </c>
       <c r="D352" t="n">
-        <v>8.969502145674061e-06</v>
+        <v>7.683874628950776e-06</v>
       </c>
     </row>
     <row r="353">
@@ -6788,7 +6788,7 @@
         </is>
       </c>
       <c r="D353" t="n">
-        <v>111.6429125856013</v>
+        <v>111.6429109693836</v>
       </c>
     </row>
     <row r="354">
@@ -6806,7 +6806,7 @@
         </is>
       </c>
       <c r="D354" t="n">
-        <v>447.4031685351853</v>
+        <v>447.4031685351851</v>
       </c>
     </row>
     <row r="355">
@@ -6878,7 +6878,7 @@
         </is>
       </c>
       <c r="D358" t="n">
-        <v>673.4239632006796</v>
+        <v>673.4239591601356</v>
       </c>
     </row>
     <row r="359">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="D359" t="n">
-        <v>774.437549758934</v>
+        <v>774.4375497589336</v>
       </c>
     </row>
     <row r="360">
@@ -6914,7 +6914,7 @@
         </is>
       </c>
       <c r="D360" t="n">
-        <v>794.8807781038066</v>
+        <v>794.8807781038062</v>
       </c>
     </row>
     <row r="361">
@@ -6968,7 +6968,7 @@
         </is>
       </c>
       <c r="D363" t="n">
-        <v>665.8479449158307</v>
+        <v>691.1013425655798</v>
       </c>
     </row>
     <row r="364">
@@ -6986,7 +6986,7 @@
         </is>
       </c>
       <c r="D364" t="n">
-        <v>673.4239741904536</v>
+        <v>673.4239741904532</v>
       </c>
     </row>
     <row r="365">
@@ -7004,7 +7004,7 @@
         </is>
       </c>
       <c r="D365" t="n">
-        <v>673.4239741904536</v>
+        <v>673.4239741904532</v>
       </c>
     </row>
     <row r="366">
@@ -7022,7 +7022,7 @@
         </is>
       </c>
       <c r="D366" t="n">
-        <v>673.4239741904536</v>
+        <v>673.4239741904532</v>
       </c>
     </row>
     <row r="367">
@@ -7040,7 +7040,7 @@
         </is>
       </c>
       <c r="D367" t="n">
-        <v>673.4239741904536</v>
+        <v>673.4239741904532</v>
       </c>
     </row>
     <row r="368">
@@ -7058,7 +7058,7 @@
         </is>
       </c>
       <c r="D368" t="n">
-        <v>673.4239741904536</v>
+        <v>673.4239741904532</v>
       </c>
     </row>
     <row r="369">
@@ -7076,7 +7076,7 @@
         </is>
       </c>
       <c r="D369" t="n">
-        <v>691.1013474945387</v>
+        <v>691.1013474945383</v>
       </c>
     </row>
     <row r="370">
@@ -7112,7 +7112,7 @@
         </is>
       </c>
       <c r="D371" t="n">
-        <v>774.4375597385721</v>
+        <v>774.4375597385717</v>
       </c>
     </row>
     <row r="372">
@@ -7130,7 +7130,7 @@
         </is>
       </c>
       <c r="D372" t="n">
-        <v>673.4239741904536</v>
+        <v>673.4239741904532</v>
       </c>
     </row>
     <row r="373">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="D373" t="n">
-        <v>673.4239741904536</v>
+        <v>673.4239741904532</v>
       </c>
     </row>
     <row r="374">
@@ -7166,7 +7166,7 @@
         </is>
       </c>
       <c r="D374" t="n">
-        <v>4.191447981700575e-05</v>
+        <v>4.191447981700574e-05</v>
       </c>
     </row>
     <row r="375">
@@ -7220,7 +7220,7 @@
         </is>
       </c>
       <c r="D377" t="n">
-        <v>7.317975837089925e-06</v>
+        <v>4.985771725135445e-06</v>
       </c>
     </row>
     <row r="378">
@@ -7238,7 +7238,7 @@
         </is>
       </c>
       <c r="D378" t="n">
-        <v>106.3265818753521</v>
+        <v>106.3265818753522</v>
       </c>
     </row>
     <row r="379">
@@ -7256,7 +7256,7 @@
         </is>
       </c>
       <c r="D379" t="n">
-        <v>426.0982557475037</v>
+        <v>426.0982557475039</v>
       </c>
     </row>
     <row r="380">
@@ -7328,7 +7328,7 @@
         </is>
       </c>
       <c r="D383" t="n">
-        <v>641.3561515805101</v>
+        <v>641.3561515805104</v>
       </c>
     </row>
     <row r="384">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="D384" t="n">
-        <v>737.5595711985177</v>
+        <v>737.559571198518</v>
       </c>
     </row>
     <row r="385">
@@ -7364,7 +7364,7 @@
         </is>
       </c>
       <c r="D385" t="n">
-        <v>757.0293124792439</v>
+        <v>757.0293124792443</v>
       </c>
     </row>
     <row r="386">
@@ -7418,7 +7418,7 @@
         </is>
       </c>
       <c r="D388" t="n">
-        <v>634.1408999193956</v>
+        <v>634.1408999193959</v>
       </c>
     </row>
     <row r="389">
@@ -7436,7 +7436,7 @@
         </is>
       </c>
       <c r="D389" t="n">
-        <v>641.3561658950982</v>
+        <v>641.3561658950986</v>
       </c>
     </row>
     <row r="390">
@@ -7454,7 +7454,7 @@
         </is>
       </c>
       <c r="D390" t="n">
-        <v>641.3561658950982</v>
+        <v>641.3561658950986</v>
       </c>
     </row>
     <row r="391">
@@ -7472,7 +7472,7 @@
         </is>
       </c>
       <c r="D391" t="n">
-        <v>641.3561658950982</v>
+        <v>641.3561658950986</v>
       </c>
     </row>
     <row r="392">
@@ -7490,7 +7490,7 @@
         </is>
       </c>
       <c r="D392" t="n">
-        <v>641.3561658950982</v>
+        <v>641.3561658950986</v>
       </c>
     </row>
     <row r="393">
@@ -7508,7 +7508,7 @@
         </is>
       </c>
       <c r="D393" t="n">
-        <v>641.3561658950982</v>
+        <v>641.3561658950986</v>
       </c>
     </row>
     <row r="394">
@@ -7526,7 +7526,7 @@
         </is>
       </c>
       <c r="D394" t="n">
-        <v>658.1917595180936</v>
+        <v>658.1917595180939</v>
       </c>
     </row>
     <row r="395">
@@ -7562,7 +7562,7 @@
         </is>
       </c>
       <c r="D396" t="n">
-        <v>737.5595807029349</v>
+        <v>737.5595807029352</v>
       </c>
     </row>
     <row r="397">
@@ -7580,7 +7580,7 @@
         </is>
       </c>
       <c r="D397" t="n">
-        <v>641.3561658950982</v>
+        <v>641.3561658950986</v>
       </c>
     </row>
     <row r="398">
@@ -7598,7 +7598,7 @@
         </is>
       </c>
       <c r="D398" t="n">
-        <v>641.3561658950982</v>
+        <v>641.3561658950986</v>
       </c>
     </row>
     <row r="399">
@@ -7652,7 +7652,7 @@
         </is>
       </c>
       <c r="D401" t="n">
-        <v>1.995927610327136e-05</v>
+        <v>1.995927610327137e-05</v>
       </c>
     </row>
     <row r="402">
@@ -7670,7 +7670,7 @@
         </is>
       </c>
       <c r="D402" t="n">
-        <v>6.969500797231021e-06</v>
+        <v>8.218895857208745e-06</v>
       </c>
     </row>
     <row r="403">
@@ -7688,7 +7688,7 @@
         </is>
       </c>
       <c r="D403" t="n">
-        <v>101.2634127756675</v>
+        <v>101.2634122259337</v>
       </c>
     </row>
     <row r="404">
@@ -7706,7 +7706,7 @@
         </is>
       </c>
       <c r="D404" t="n">
-        <v>405.8078626163242</v>
+        <v>405.8078626163243</v>
       </c>
     </row>
     <row r="405">
@@ -7778,7 +7778,7 @@
         </is>
       </c>
       <c r="D408" t="n">
-        <v>610.8153861219497</v>
+        <v>610.8153847476151</v>
       </c>
     </row>
     <row r="409">
@@ -7886,7 +7886,7 @@
         </is>
       </c>
       <c r="D414" t="n">
-        <v>610.8153960899987</v>
+        <v>610.8153960899986</v>
       </c>
     </row>
     <row r="415">
@@ -7922,7 +7922,7 @@
         </is>
       </c>
       <c r="D416" t="n">
-        <v>610.8153960899987</v>
+        <v>610.8153960899986</v>
       </c>
     </row>
     <row r="417">
@@ -7940,7 +7940,7 @@
         </is>
       </c>
       <c r="D417" t="n">
-        <v>610.8153960899987</v>
+        <v>610.8153960899986</v>
       </c>
     </row>
     <row r="418">
@@ -7958,7 +7958,7 @@
         </is>
       </c>
       <c r="D418" t="n">
-        <v>610.8153960899987</v>
+        <v>610.8153960899986</v>
       </c>
     </row>
     <row r="419">
@@ -8030,7 +8030,7 @@
         </is>
       </c>
       <c r="D422" t="n">
-        <v>610.8153960899987</v>
+        <v>610.8153960899986</v>
       </c>
     </row>
     <row r="423">
@@ -8048,7 +8048,7 @@
         </is>
       </c>
       <c r="D423" t="n">
-        <v>610.8153960899987</v>
+        <v>610.8153960899986</v>
       </c>
     </row>
     <row r="424">
@@ -8120,7 +8120,7 @@
         </is>
       </c>
       <c r="D427" t="n">
-        <v>4.257819692655484e-06</v>
+        <v>7.827519864008043e-06</v>
       </c>
     </row>
     <row r="428">
@@ -8138,7 +8138,7 @@
         </is>
       </c>
       <c r="D428" t="n">
-        <v>96.44134410458275</v>
+        <v>96.44134497717621</v>
       </c>
     </row>
     <row r="429">
@@ -8156,7 +8156,7 @@
         </is>
       </c>
       <c r="D429" t="n">
-        <v>386.4836786826459</v>
+        <v>386.483678682646</v>
       </c>
     </row>
     <row r="430">
@@ -8228,7 +8228,7 @@
         </is>
       </c>
       <c r="D433" t="n">
-        <v>581.7289356740863</v>
+        <v>581.7289378555699</v>
       </c>
     </row>
     <row r="434">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="D434" t="n">
-        <v>668.9882731961118</v>
+        <v>668.988273196112</v>
       </c>
     </row>
     <row r="435">
@@ -8264,7 +8264,7 @@
         </is>
       </c>
       <c r="D435" t="n">
-        <v>686.6479024756886</v>
+        <v>686.6479024756889</v>
       </c>
     </row>
     <row r="436">
@@ -8318,7 +8318,7 @@
         </is>
       </c>
       <c r="D438" t="n">
-        <v>575.1844897229663</v>
+        <v>575.1844897229666</v>
       </c>
     </row>
     <row r="439">
@@ -8336,7 +8336,7 @@
         </is>
       </c>
       <c r="D439" t="n">
-        <v>581.7289486578397</v>
+        <v>581.72894865784</v>
       </c>
     </row>
     <row r="440">
@@ -8354,7 +8354,7 @@
         </is>
       </c>
       <c r="D440" t="n">
-        <v>581.7289486578397</v>
+        <v>581.72894865784</v>
       </c>
     </row>
     <row r="441">
@@ -8372,7 +8372,7 @@
         </is>
       </c>
       <c r="D441" t="n">
-        <v>581.7289486578397</v>
+        <v>581.72894865784</v>
       </c>
     </row>
     <row r="442">
@@ -8390,7 +8390,7 @@
         </is>
       </c>
       <c r="D442" t="n">
-        <v>581.7289486578397</v>
+        <v>581.72894865784</v>
       </c>
     </row>
     <row r="443">
@@ -8408,7 +8408,7 @@
         </is>
       </c>
       <c r="D443" t="n">
-        <v>581.7289486578397</v>
+        <v>581.72894865784</v>
       </c>
     </row>
     <row r="444">
@@ -8426,7 +8426,7 @@
         </is>
       </c>
       <c r="D444" t="n">
-        <v>596.9993283612423</v>
+        <v>596.9993283612426</v>
       </c>
     </row>
     <row r="445">
@@ -8444,7 +8444,7 @@
         </is>
       </c>
       <c r="D445" t="n">
-        <v>1.724157313751352e-05</v>
+        <v>1.724157313751351e-05</v>
       </c>
     </row>
     <row r="446">
@@ -8462,7 +8462,7 @@
         </is>
       </c>
       <c r="D446" t="n">
-        <v>668.9882818168984</v>
+        <v>668.9882818168986</v>
       </c>
     </row>
     <row r="447">
@@ -8480,7 +8480,7 @@
         </is>
       </c>
       <c r="D447" t="n">
-        <v>581.7289486578397</v>
+        <v>581.72894865784</v>
       </c>
     </row>
     <row r="448">
@@ -8498,7 +8498,7 @@
         </is>
       </c>
       <c r="D448" t="n">
-        <v>581.7289486578397</v>
+        <v>581.72894865784</v>
       </c>
     </row>
     <row r="449">
@@ -8570,7 +8570,7 @@
         </is>
       </c>
       <c r="D452" t="n">
-        <v>6.321542673220691e-06</v>
+        <v>6.227106160754713e-06</v>
       </c>
     </row>
     <row r="453">
@@ -8588,7 +8588,7 @@
         </is>
       </c>
       <c r="D453" t="n">
-        <v>91.84889914701736</v>
+        <v>91.84889914701725</v>
       </c>
     </row>
     <row r="454">
@@ -8606,7 +8606,7 @@
         </is>
       </c>
       <c r="D454" t="n">
-        <v>368.0796939829713</v>
+        <v>368.0796939829712</v>
       </c>
     </row>
     <row r="455">
@@ -8678,7 +8678,7 @@
         </is>
       </c>
       <c r="D458" t="n">
-        <v>554.027557784019</v>
+        <v>554.0275577840188</v>
       </c>
     </row>
     <row r="459">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="D459" t="n">
-        <v>637.1316879263114</v>
+        <v>637.1316887573525</v>
       </c>
     </row>
     <row r="460">
@@ -8714,7 +8714,7 @@
         </is>
       </c>
       <c r="D460" t="n">
-        <v>653.9503833092639</v>
+        <v>653.9503833092638</v>
       </c>
     </row>
     <row r="461">
@@ -8768,7 +8768,7 @@
         </is>
       </c>
       <c r="D463" t="n">
-        <v>547.794752116238</v>
+        <v>543.6395455675661</v>
       </c>
     </row>
     <row r="464">
@@ -8786,7 +8786,7 @@
         </is>
       </c>
       <c r="D464" t="n">
-        <v>554.0275701494984</v>
+        <v>554.0275701494983</v>
       </c>
     </row>
     <row r="465">
@@ -8804,7 +8804,7 @@
         </is>
       </c>
       <c r="D465" t="n">
-        <v>554.0275701494984</v>
+        <v>554.0275701494983</v>
       </c>
     </row>
     <row r="466">
@@ -8822,7 +8822,7 @@
         </is>
       </c>
       <c r="D466" t="n">
-        <v>554.0275701494984</v>
+        <v>554.0275701494983</v>
       </c>
     </row>
     <row r="467">
@@ -8840,7 +8840,7 @@
         </is>
       </c>
       <c r="D467" t="n">
-        <v>554.0275701494984</v>
+        <v>554.0275701494983</v>
       </c>
     </row>
     <row r="468">
@@ -8858,7 +8858,7 @@
         </is>
       </c>
       <c r="D468" t="n">
-        <v>554.0275701494984</v>
+        <v>554.0275701494983</v>
       </c>
     </row>
     <row r="469">
@@ -8876,7 +8876,7 @@
         </is>
       </c>
       <c r="D469" t="n">
-        <v>568.5707889146628</v>
+        <v>568.5707889146626</v>
       </c>
     </row>
     <row r="470">
@@ -8912,7 +8912,7 @@
         </is>
       </c>
       <c r="D471" t="n">
-        <v>637.1316969676257</v>
+        <v>637.1316969676254</v>
       </c>
     </row>
     <row r="472">
@@ -8930,7 +8930,7 @@
         </is>
       </c>
       <c r="D472" t="n">
-        <v>554.0275701494984</v>
+        <v>554.0275701494983</v>
       </c>
     </row>
     <row r="473">
@@ -8948,7 +8948,7 @@
         </is>
       </c>
       <c r="D473" t="n">
-        <v>554.0275701494985</v>
+        <v>554.0275701494983</v>
       </c>
     </row>
     <row r="474">
@@ -9020,7 +9020,7 @@
         </is>
       </c>
       <c r="D477" t="n">
-        <v>6.020516831643455e-06</v>
+        <v>7.027839631327945e-06</v>
       </c>
     </row>
     <row r="478">
@@ -9038,7 +9038,7 @@
         </is>
       </c>
       <c r="D478" t="n">
-        <v>87.47514283666663</v>
+        <v>87.47514204519879</v>
       </c>
     </row>
     <row r="479">
@@ -9128,7 +9128,7 @@
         </is>
       </c>
       <c r="D483" t="n">
-        <v>527.6452951073862</v>
+        <v>527.6452931287166</v>
       </c>
     </row>
     <row r="484">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="D484" t="n">
-        <v>606.7920845318582</v>
+        <v>606.7920837403904</v>
       </c>
     </row>
     <row r="485">
@@ -9164,7 +9164,7 @@
         </is>
       </c>
       <c r="D485" t="n">
-        <v>622.809888867172</v>
+        <v>622.8098888671722</v>
       </c>
     </row>
     <row r="486">
@@ -9218,7 +9218,7 @@
         </is>
       </c>
       <c r="D488" t="n">
-        <v>521.7092877308679</v>
+        <v>521.709287730868</v>
       </c>
     </row>
     <row r="489">
@@ -9236,7 +9236,7 @@
         </is>
       </c>
       <c r="D489" t="n">
-        <v>527.6453049053636</v>
+        <v>527.6453049053638</v>
       </c>
     </row>
     <row r="490">
@@ -9254,7 +9254,7 @@
         </is>
       </c>
       <c r="D490" t="n">
-        <v>527.6453049053636</v>
+        <v>527.6453049053638</v>
       </c>
     </row>
     <row r="491">
@@ -9272,7 +9272,7 @@
         </is>
       </c>
       <c r="D491" t="n">
-        <v>527.6453049053636</v>
+        <v>527.6453049053638</v>
       </c>
     </row>
     <row r="492">
@@ -9290,7 +9290,7 @@
         </is>
       </c>
       <c r="D492" t="n">
-        <v>527.6453049053636</v>
+        <v>527.6453049053638</v>
       </c>
     </row>
     <row r="493">
@@ -9308,7 +9308,7 @@
         </is>
       </c>
       <c r="D493" t="n">
-        <v>527.6453049053636</v>
+        <v>527.6453049053638</v>
       </c>
     </row>
     <row r="494">
@@ -9326,7 +9326,7 @@
         </is>
       </c>
       <c r="D494" t="n">
-        <v>541.4959894435964</v>
+        <v>541.4959894435965</v>
       </c>
     </row>
     <row r="495">
@@ -9380,7 +9380,7 @@
         </is>
       </c>
       <c r="D497" t="n">
-        <v>527.6453049053636</v>
+        <v>527.6453049053638</v>
       </c>
     </row>
     <row r="498">
@@ -9398,7 +9398,7 @@
         </is>
       </c>
       <c r="D498" t="n">
-        <v>527.6453049053636</v>
+        <v>527.6453049053638</v>
       </c>
     </row>
     <row r="499">
@@ -9470,7 +9470,7 @@
         </is>
       </c>
       <c r="D502" t="n">
-        <v>6.761705961780224e-06</v>
+        <v>5.648168853293387e-06</v>
       </c>
     </row>
     <row r="503">
@@ -9488,7 +9488,7 @@
         </is>
       </c>
       <c r="D503" t="n">
-        <v>83.30965984435804</v>
+        <v>83.30965909057906</v>
       </c>
     </row>
     <row r="504">
@@ -9578,7 +9578,7 @@
         </is>
       </c>
       <c r="D508" t="n">
-        <v>502.5193286732567</v>
+        <v>502.5193267888092</v>
       </c>
     </row>
     <row r="509">
@@ -9668,7 +9668,7 @@
         </is>
       </c>
       <c r="D513" t="n">
-        <v>496.8659883146154</v>
+        <v>493.0970934858829</v>
       </c>
     </row>
     <row r="514">
@@ -9686,7 +9686,7 @@
         </is>
       </c>
       <c r="D514" t="n">
-        <v>502.5193380046637</v>
+        <v>502.5193380046636</v>
       </c>
     </row>
     <row r="515">
@@ -9704,7 +9704,7 @@
         </is>
       </c>
       <c r="D515" t="n">
-        <v>502.5193380046637</v>
+        <v>502.5193380046636</v>
       </c>
     </row>
     <row r="516">
@@ -9722,7 +9722,7 @@
         </is>
       </c>
       <c r="D516" t="n">
-        <v>502.5193380046637</v>
+        <v>502.5193380046636</v>
       </c>
     </row>
     <row r="517">
@@ -9740,7 +9740,7 @@
         </is>
       </c>
       <c r="D517" t="n">
-        <v>502.5193380046637</v>
+        <v>502.5193380046636</v>
       </c>
     </row>
     <row r="518">
@@ -9758,7 +9758,7 @@
         </is>
       </c>
       <c r="D518" t="n">
-        <v>502.5193380046637</v>
+        <v>502.5193380046636</v>
       </c>
     </row>
     <row r="519">
@@ -9830,7 +9830,7 @@
         </is>
       </c>
       <c r="D522" t="n">
-        <v>502.5193380046637</v>
+        <v>502.5193380046636</v>
       </c>
     </row>
     <row r="523">
@@ -9848,7 +9848,7 @@
         </is>
       </c>
       <c r="D523" t="n">
-        <v>502.5193380046637</v>
+        <v>502.5193380046636</v>
       </c>
     </row>
     <row r="524">
@@ -9902,7 +9902,7 @@
         </is>
       </c>
       <c r="D526" t="n">
-        <v>1.563861509067944e-05</v>
+        <v>1.563861509067945e-05</v>
       </c>
     </row>
     <row r="527">
@@ -9920,7 +9920,7 @@
         </is>
       </c>
       <c r="D527" t="n">
-        <v>6.439719963603176e-06</v>
+        <v>5.37920843171081e-06</v>
       </c>
     </row>
     <row r="528">
@@ -9938,7 +9938,7 @@
         </is>
       </c>
       <c r="D528" t="n">
-        <v>79.34253361582486</v>
+        <v>79.342533185094</v>
       </c>
     </row>
     <row r="529">
@@ -10010,7 +10010,7 @@
         </is>
       </c>
       <c r="D532" t="n">
-        <v>3.502918798366994e-06</v>
+        <v>7.092342444769817e-06</v>
       </c>
     </row>
     <row r="533">
@@ -10028,7 +10028,7 @@
         </is>
       </c>
       <c r="D533" t="n">
-        <v>478.5898379085637</v>
+        <v>478.5898368317365</v>
       </c>
     </row>
     <row r="534">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="D534" t="n">
-        <v>550.3783079650811</v>
+        <v>550.378307965081</v>
       </c>
     </row>
     <row r="535">
@@ -10064,7 +10064,7 @@
         </is>
       </c>
       <c r="D535" t="n">
-        <v>564.9069286772259</v>
+        <v>564.9069286772258</v>
       </c>
     </row>
     <row r="536">
@@ -10118,7 +10118,7 @@
         </is>
       </c>
       <c r="D538" t="n">
-        <v>473.2057031568592</v>
+        <v>473.205703156859</v>
       </c>
     </row>
     <row r="539">
@@ -10136,7 +10136,7 @@
         </is>
       </c>
       <c r="D539" t="n">
-        <v>478.5898457187909</v>
+        <v>478.5898457187907</v>
       </c>
     </row>
     <row r="540">
@@ -10154,7 +10154,7 @@
         </is>
       </c>
       <c r="D540" t="n">
-        <v>478.5898457187909</v>
+        <v>478.5898457187907</v>
       </c>
     </row>
     <row r="541">
@@ -10172,7 +10172,7 @@
         </is>
       </c>
       <c r="D541" t="n">
-        <v>478.5898457187909</v>
+        <v>478.5898457187907</v>
       </c>
     </row>
     <row r="542">
@@ -10190,7 +10190,7 @@
         </is>
       </c>
       <c r="D542" t="n">
-        <v>478.5898457187909</v>
+        <v>478.5898457187907</v>
       </c>
     </row>
     <row r="543">
@@ -10208,7 +10208,7 @@
         </is>
       </c>
       <c r="D543" t="n">
-        <v>478.5898457187908</v>
+        <v>478.5898457187907</v>
       </c>
     </row>
     <row r="544">
@@ -10226,7 +10226,7 @@
         </is>
       </c>
       <c r="D544" t="n">
-        <v>491.1528248917421</v>
+        <v>491.1528248917419</v>
       </c>
     </row>
     <row r="545">
@@ -10262,7 +10262,7 @@
         </is>
       </c>
       <c r="D546" t="n">
-        <v>550.3783150574236</v>
+        <v>550.3783150574235</v>
       </c>
     </row>
     <row r="547">
@@ -10280,7 +10280,7 @@
         </is>
       </c>
       <c r="D547" t="n">
-        <v>478.5898457187908</v>
+        <v>478.5898457187907</v>
       </c>
     </row>
     <row r="548">
@@ -10298,7 +10298,7 @@
         </is>
       </c>
       <c r="D548" t="n">
-        <v>478.5898457187908</v>
+        <v>478.5898457187907</v>
       </c>
     </row>
     <row r="549">
@@ -10370,7 +10370,7 @@
         </is>
       </c>
       <c r="D552" t="n">
-        <v>5.200748801768212e-06</v>
+        <v>6.133066632007178e-06</v>
       </c>
     </row>
     <row r="553">
@@ -10388,7 +10388,7 @@
         </is>
       </c>
       <c r="D553" t="n">
-        <v>75.56431663552374</v>
+        <v>75.56431731922353</v>
       </c>
     </row>
     <row r="554">
@@ -10406,7 +10406,7 @@
         </is>
       </c>
       <c r="D554" t="n">
-        <v>302.8200751610246</v>
+        <v>302.8200751610247</v>
       </c>
     </row>
     <row r="555">
@@ -10478,7 +10478,7 @@
         </is>
       </c>
       <c r="D558" t="n">
-        <v>455.7998428928489</v>
+        <v>455.7998446020983</v>
       </c>
     </row>
     <row r="559">
@@ -10514,7 +10514,7 @@
         </is>
       </c>
       <c r="D560" t="n">
-        <v>538.0065987407229</v>
+        <v>538.006598740723</v>
       </c>
     </row>
     <row r="561">
@@ -10568,7 +10568,7 @@
         </is>
       </c>
       <c r="D563" t="n">
-        <v>450.6720982450578</v>
+        <v>450.6720982450579</v>
       </c>
     </row>
     <row r="564">
@@ -10586,7 +10586,7 @@
         </is>
       </c>
       <c r="D564" t="n">
-        <v>455.7998530659594</v>
+        <v>455.7998530659596</v>
       </c>
     </row>
     <row r="565">
@@ -10604,7 +10604,7 @@
         </is>
       </c>
       <c r="D565" t="n">
-        <v>455.7998530659594</v>
+        <v>455.7998530659596</v>
       </c>
     </row>
     <row r="566">
@@ -10622,7 +10622,7 @@
         </is>
       </c>
       <c r="D566" t="n">
-        <v>455.7998530659594</v>
+        <v>455.7998530659596</v>
       </c>
     </row>
     <row r="567">
@@ -10640,7 +10640,7 @@
         </is>
       </c>
       <c r="D567" t="n">
-        <v>455.7998530659594</v>
+        <v>455.7998530659596</v>
       </c>
     </row>
     <row r="568">
@@ -10658,7 +10658,7 @@
         </is>
       </c>
       <c r="D568" t="n">
-        <v>455.7998530659594</v>
+        <v>455.7998530659596</v>
       </c>
     </row>
     <row r="569">
@@ -10676,7 +10676,7 @@
         </is>
       </c>
       <c r="D569" t="n">
-        <v>467.7645951354368</v>
+        <v>467.7645951354369</v>
       </c>
     </row>
     <row r="570">
@@ -10730,7 +10730,7 @@
         </is>
       </c>
       <c r="D572" t="n">
-        <v>455.7998530659594</v>
+        <v>455.7998530659596</v>
       </c>
     </row>
     <row r="573">
@@ -10748,7 +10748,7 @@
         </is>
       </c>
       <c r="D573" t="n">
-        <v>455.7998530659594</v>
+        <v>455.7998530659596</v>
       </c>
     </row>
     <row r="574">
@@ -10766,7 +10766,7 @@
         </is>
       </c>
       <c r="D574" t="n">
-        <v>2.83693697791106e-05</v>
+        <v>2.836936977911061e-05</v>
       </c>
     </row>
     <row r="575">
@@ -10820,7 +10820,7 @@
         </is>
       </c>
       <c r="D577" t="n">
-        <v>5.84101584000624e-06</v>
+        <v>4.80510713974739e-06</v>
       </c>
     </row>
     <row r="578">
@@ -10838,7 +10838,7 @@
         </is>
       </c>
       <c r="D578" t="n">
-        <v>71.96601688523363</v>
+        <v>71.96601649454807</v>
       </c>
     </row>
     <row r="579">
@@ -10928,7 +10928,7 @@
         </is>
       </c>
       <c r="D583" t="n">
-        <v>434.0950910737598</v>
+        <v>434.0950900970459</v>
       </c>
     </row>
     <row r="584">
@@ -11216,7 +11216,7 @@
         </is>
       </c>
       <c r="D599" t="n">
-        <v>2.701844740867318e-05</v>
+        <v>2.701844740867317e-05</v>
       </c>
     </row>
     <row r="600">
@@ -11270,7 +11270,7 @@
         </is>
       </c>
       <c r="D602" t="n">
-        <v>5.562872228576541e-06</v>
+        <v>4.646762493650788e-06</v>
       </c>
     </row>
     <row r="603">
@@ -11288,7 +11288,7 @@
         </is>
       </c>
       <c r="D603" t="n">
-        <v>68.53906270810431</v>
+        <v>68.53906370032156</v>
       </c>
     </row>
     <row r="604">
@@ -11306,7 +11306,7 @@
         </is>
       </c>
       <c r="D604" t="n">
-        <v>274.6667348399469</v>
+        <v>274.6667348399467</v>
       </c>
     </row>
     <row r="605">
@@ -11378,7 +11378,7 @@
         </is>
       </c>
       <c r="D608" t="n">
-        <v>413.423893780371</v>
+        <v>413.4238962609141</v>
       </c>
     </row>
     <row r="609">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="D609" t="n">
-        <v>475.4374758367469</v>
+        <v>475.4374758367468</v>
       </c>
     </row>
     <row r="610">
@@ -11468,7 +11468,7 @@
         </is>
       </c>
       <c r="D613" t="n">
-        <v>408.7728782268594</v>
+        <v>408.7728782268593</v>
       </c>
     </row>
     <row r="614">
@@ -11486,7 +11486,7 @@
         </is>
       </c>
       <c r="D614" t="n">
-        <v>413.4239030076822</v>
+        <v>413.423903007682</v>
       </c>
     </row>
     <row r="615">
@@ -11504,7 +11504,7 @@
         </is>
       </c>
       <c r="D615" t="n">
-        <v>413.4239030076822</v>
+        <v>413.423903007682</v>
       </c>
     </row>
     <row r="616">
@@ -11522,7 +11522,7 @@
         </is>
       </c>
       <c r="D616" t="n">
-        <v>413.4239030076822</v>
+        <v>413.423903007682</v>
       </c>
     </row>
     <row r="617">
@@ -11540,7 +11540,7 @@
         </is>
       </c>
       <c r="D617" t="n">
-        <v>413.4239030076822</v>
+        <v>413.423903007682</v>
       </c>
     </row>
     <row r="618">
@@ -11558,7 +11558,7 @@
         </is>
       </c>
       <c r="D618" t="n">
-        <v>413.4239030076822</v>
+        <v>413.423903007682</v>
       </c>
     </row>
     <row r="619">
@@ -11612,7 +11612,7 @@
         </is>
       </c>
       <c r="D621" t="n">
-        <v>475.437481963379</v>
+        <v>475.4374819633789</v>
       </c>
     </row>
     <row r="622">
@@ -11630,7 +11630,7 @@
         </is>
       </c>
       <c r="D622" t="n">
-        <v>413.4239030076822</v>
+        <v>413.423903007682</v>
       </c>
     </row>
     <row r="623">
@@ -11648,7 +11648,7 @@
         </is>
       </c>
       <c r="D623" t="n">
-        <v>413.4239030076822</v>
+        <v>413.423903007682</v>
       </c>
     </row>
     <row r="624">
@@ -11666,7 +11666,7 @@
         </is>
       </c>
       <c r="D624" t="n">
-        <v>2.573185467492444e-05</v>
+        <v>2.573185467492443e-05</v>
       </c>
     </row>
     <row r="625">
@@ -11720,7 +11720,7 @@
         </is>
       </c>
       <c r="D627" t="n">
-        <v>4.425488089193587e-06</v>
+        <v>5.297973551027356e-06</v>
       </c>
     </row>
     <row r="628">
@@ -11738,7 +11738,7 @@
         </is>
       </c>
       <c r="D628" t="n">
-        <v>65.27529840761407</v>
+        <v>65.27529840761413</v>
       </c>
     </row>
     <row r="629">
@@ -11756,7 +11756,7 @@
         </is>
       </c>
       <c r="D629" t="n">
-        <v>261.5873665141739</v>
+        <v>261.587366514174</v>
       </c>
     </row>
     <row r="630">
@@ -11828,7 +11828,7 @@
         </is>
       </c>
       <c r="D633" t="n">
-        <v>393.7370431719783</v>
+        <v>393.7370431719784</v>
       </c>
     </row>
     <row r="634">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="D634" t="n">
-        <v>452.7975960349463</v>
+        <v>452.7975960349464</v>
       </c>
     </row>
     <row r="635">
@@ -11864,7 +11864,7 @@
         </is>
       </c>
       <c r="D635" t="n">
-        <v>464.7503282501467</v>
+        <v>464.7503282501468</v>
       </c>
     </row>
     <row r="636">
@@ -11936,7 +11936,7 @@
         </is>
       </c>
       <c r="D639" t="n">
-        <v>393.7370504833797</v>
+        <v>393.73705048338</v>
       </c>
     </row>
     <row r="640">
@@ -11954,7 +11954,7 @@
         </is>
       </c>
       <c r="D640" t="n">
-        <v>393.7370504833797</v>
+        <v>393.73705048338</v>
       </c>
     </row>
     <row r="641">
@@ -11972,7 +11972,7 @@
         </is>
       </c>
       <c r="D641" t="n">
-        <v>393.7370504833797</v>
+        <v>393.73705048338</v>
       </c>
     </row>
     <row r="642">
@@ -11990,7 +11990,7 @@
         </is>
       </c>
       <c r="D642" t="n">
-        <v>393.7370504833797</v>
+        <v>393.73705048338</v>
       </c>
     </row>
     <row r="643">
@@ -12008,7 +12008,7 @@
         </is>
       </c>
       <c r="D643" t="n">
-        <v>393.7370504833797</v>
+        <v>393.73705048338</v>
       </c>
     </row>
     <row r="644">
@@ -12026,7 +12026,7 @@
         </is>
       </c>
       <c r="D644" t="n">
-        <v>404.0726445397314</v>
+        <v>404.0726445397315</v>
       </c>
     </row>
     <row r="645">
@@ -12044,7 +12044,7 @@
         </is>
       </c>
       <c r="D645" t="n">
-        <v>1.166977536277667e-05</v>
+        <v>1.166977536277666e-05</v>
       </c>
     </row>
     <row r="646">
@@ -12062,7 +12062,7 @@
         </is>
       </c>
       <c r="D646" t="n">
-        <v>452.797601869834</v>
+        <v>452.7976018698341</v>
       </c>
     </row>
     <row r="647">
@@ -12080,7 +12080,7 @@
         </is>
       </c>
       <c r="D647" t="n">
-        <v>393.7370504833798</v>
+        <v>393.73705048338</v>
       </c>
     </row>
     <row r="648">
@@ -12098,7 +12098,7 @@
         </is>
       </c>
       <c r="D648" t="n">
-        <v>393.7370504833798</v>
+        <v>393.73705048338</v>
       </c>
     </row>
     <row r="649">
@@ -12116,7 +12116,7 @@
         </is>
       </c>
       <c r="D649" t="n">
-        <v>2.450652826184079e-05</v>
+        <v>2.45065282618408e-05</v>
       </c>
     </row>
     <row r="650">
@@ -12170,7 +12170,7 @@
         </is>
       </c>
       <c r="D652" t="n">
-        <v>4.278668909981109e-06</v>
+        <v>4.278668909981108e-06</v>
       </c>
     </row>
     <row r="653">
@@ -12188,7 +12188,7 @@
         </is>
       </c>
       <c r="D653" t="n">
-        <v>62.16695120172066</v>
+        <v>62.16695086423174</v>
       </c>
     </row>
     <row r="654">
@@ -12206,7 +12206,7 @@
         </is>
       </c>
       <c r="D654" t="n">
-        <v>249.1308252511854</v>
+        <v>249.1308252511853</v>
       </c>
     </row>
     <row r="655">
@@ -12278,7 +12278,7 @@
         </is>
       </c>
       <c r="D658" t="n">
-        <v>374.987661006876</v>
+        <v>374.9876601631537</v>
       </c>
     </row>
     <row r="659">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="D659" t="n">
-        <v>431.2358057468376</v>
+        <v>431.2358057468375</v>
       </c>
     </row>
     <row r="660">
@@ -12314,7 +12314,7 @@
         </is>
       </c>
       <c r="D660" t="n">
-        <v>442.6193602375405</v>
+        <v>442.6193602375403</v>
       </c>
     </row>
     <row r="661">
@@ -12368,7 +12368,7 @@
         </is>
       </c>
       <c r="D663" t="n">
-        <v>370.7690505451259</v>
+        <v>370.7690505451258</v>
       </c>
     </row>
     <row r="664">
@@ -12386,7 +12386,7 @@
         </is>
       </c>
       <c r="D664" t="n">
-        <v>374.9876671263934</v>
+        <v>374.9876671263933</v>
       </c>
     </row>
     <row r="665">
@@ -12404,7 +12404,7 @@
         </is>
       </c>
       <c r="D665" t="n">
-        <v>374.9876671263934</v>
+        <v>374.9876671263933</v>
       </c>
     </row>
     <row r="666">
@@ -12422,7 +12422,7 @@
         </is>
       </c>
       <c r="D666" t="n">
-        <v>374.9876671263934</v>
+        <v>374.9876671263933</v>
       </c>
     </row>
     <row r="667">
@@ -12440,7 +12440,7 @@
         </is>
       </c>
       <c r="D667" t="n">
-        <v>374.9876671263934</v>
+        <v>374.9876671263933</v>
       </c>
     </row>
     <row r="668">
@@ -12458,7 +12458,7 @@
         </is>
       </c>
       <c r="D668" t="n">
-        <v>374.9876671263934</v>
+        <v>374.9876671263933</v>
       </c>
     </row>
     <row r="669">
@@ -12476,7 +12476,7 @@
         </is>
       </c>
       <c r="D669" t="n">
-        <v>384.8310900372264</v>
+        <v>384.8310900372262</v>
       </c>
     </row>
     <row r="670">
@@ -12512,7 +12512,7 @@
         </is>
       </c>
       <c r="D671" t="n">
-        <v>431.2358113038735</v>
+        <v>431.2358113038734</v>
       </c>
     </row>
     <row r="672">
@@ -12530,7 +12530,7 @@
         </is>
       </c>
       <c r="D672" t="n">
-        <v>374.9876671263934</v>
+        <v>374.9876671263933</v>
       </c>
     </row>
     <row r="673">
@@ -12548,7 +12548,7 @@
         </is>
       </c>
       <c r="D673" t="n">
-        <v>374.9876671263934</v>
+        <v>374.9876671263933</v>
       </c>
     </row>
     <row r="674">
@@ -12620,7 +12620,7 @@
         </is>
       </c>
       <c r="D677" t="n">
-        <v>3.953173535506094e-06</v>
+        <v>4.805418186866165e-06</v>
       </c>
     </row>
     <row r="678">
@@ -12638,7 +12638,7 @@
         </is>
       </c>
       <c r="D678" t="n">
-        <v>59.20661987075408</v>
+        <v>59.20661933505744</v>
       </c>
     </row>
     <row r="679">
@@ -12656,7 +12656,7 @@
         </is>
       </c>
       <c r="D679" t="n">
-        <v>237.2674526201768</v>
+        <v>237.2674526201767</v>
       </c>
     </row>
     <row r="680">
@@ -12728,7 +12728,7 @@
         </is>
       </c>
       <c r="D683" t="n">
-        <v>357.1311049172893</v>
+        <v>357.1311035780477</v>
       </c>
     </row>
     <row r="684">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="D684" t="n">
-        <v>410.7007673779407</v>
+        <v>410.7007668422439</v>
       </c>
     </row>
     <row r="685">
@@ -12764,7 +12764,7 @@
         </is>
       </c>
       <c r="D685" t="n">
-        <v>421.5422478452773</v>
+        <v>421.5422478452772</v>
       </c>
     </row>
     <row r="686">
@@ -12836,7 +12836,7 @@
         </is>
       </c>
       <c r="D689" t="n">
-        <v>357.1311115489461</v>
+        <v>357.131111548946</v>
       </c>
     </row>
     <row r="690">
@@ -12854,7 +12854,7 @@
         </is>
       </c>
       <c r="D690" t="n">
-        <v>357.1311115489461</v>
+        <v>357.131111548946</v>
       </c>
     </row>
     <row r="691">
@@ -12872,7 +12872,7 @@
         </is>
       </c>
       <c r="D691" t="n">
-        <v>357.1311115489461</v>
+        <v>357.131111548946</v>
       </c>
     </row>
     <row r="692">
@@ -12890,7 +12890,7 @@
         </is>
       </c>
       <c r="D692" t="n">
-        <v>357.1311115489461</v>
+        <v>357.131111548946</v>
       </c>
     </row>
     <row r="693">
@@ -12908,7 +12908,7 @@
         </is>
       </c>
       <c r="D693" t="n">
-        <v>357.1311115489461</v>
+        <v>357.131111548946</v>
       </c>
     </row>
     <row r="694">
@@ -12926,7 +12926,7 @@
         </is>
       </c>
       <c r="D694" t="n">
-        <v>366.5058000354542</v>
+        <v>366.5058000354541</v>
       </c>
     </row>
     <row r="695">
@@ -12962,7 +12962,7 @@
         </is>
       </c>
       <c r="D696" t="n">
-        <v>410.7007726703558</v>
+        <v>410.7007726703557</v>
       </c>
     </row>
     <row r="697">
@@ -12980,7 +12980,7 @@
         </is>
       </c>
       <c r="D697" t="n">
-        <v>357.1311115489461</v>
+        <v>357.131111548946</v>
       </c>
     </row>
     <row r="698">
@@ -12998,7 +12998,7 @@
         </is>
       </c>
       <c r="D698" t="n">
-        <v>357.1311115489461</v>
+        <v>357.131111548946</v>
       </c>
     </row>
     <row r="699">
@@ -13070,7 +13070,7 @@
         </is>
       </c>
       <c r="D702" t="n">
-        <v>4.576588749399803e-06</v>
+        <v>3.82290300329655e-06</v>
       </c>
     </row>
     <row r="703">
@@ -13088,7 +13088,7 @@
         </is>
       </c>
       <c r="D703" t="n">
-        <v>56.38725753000642</v>
+        <v>56.38725732593153</v>
       </c>
     </row>
     <row r="704">
@@ -13178,7 +13178,7 @@
         </is>
       </c>
       <c r="D708" t="n">
-        <v>340.1248631016485</v>
+        <v>340.1248625914613</v>
       </c>
     </row>
     <row r="709">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="D709" t="n">
-        <v>391.1435879792101</v>
+        <v>391.1435879792102</v>
       </c>
     </row>
     <row r="710">
@@ -13268,7 +13268,7 @@
         </is>
       </c>
       <c r="D713" t="n">
-        <v>336.2984585444663</v>
+        <v>336.2984585444662</v>
       </c>
     </row>
     <row r="714">
@@ -13520,7 +13520,7 @@
         </is>
       </c>
       <c r="D727" t="n">
-        <v>3.696075076110937e-06</v>
+        <v>4.31448389343137e-06</v>
       </c>
     </row>
     <row r="728">
@@ -13538,7 +13538,7 @@
         </is>
       </c>
       <c r="D728" t="n">
-        <v>53.70214983432334</v>
+        <v>53.70214983432336</v>
       </c>
     </row>
     <row r="729">
@@ -13556,7 +13556,7 @@
         </is>
       </c>
       <c r="D729" t="n">
-        <v>215.2085738056076</v>
+        <v>215.2085738056077</v>
       </c>
     </row>
     <row r="730">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="D734" t="n">
-        <v>372.5177023520075</v>
+        <v>372.5177028379001</v>
       </c>
     </row>
     <row r="735">
@@ -13664,7 +13664,7 @@
         </is>
       </c>
       <c r="D735" t="n">
-        <v>382.3512452119901</v>
+        <v>382.3512452119903</v>
       </c>
     </row>
     <row r="736">
@@ -13718,7 +13718,7 @@
         </is>
       </c>
       <c r="D738" t="n">
-        <v>317.8547830225927</v>
+        <v>320.2842462334679</v>
       </c>
     </row>
     <row r="739">
@@ -13826,7 +13826,7 @@
         </is>
       </c>
       <c r="D744" t="n">
-        <v>332.4315646587568</v>
+        <v>332.4315646587569</v>
       </c>
     </row>
     <row r="745">
@@ -13844,7 +13844,7 @@
         </is>
       </c>
       <c r="D745" t="n">
-        <v>9.600753071216798e-06</v>
+        <v>9.600753071216795e-06</v>
       </c>
     </row>
     <row r="746">
@@ -13862,7 +13862,7 @@
         </is>
       </c>
       <c r="D746" t="n">
-        <v>372.5177076382766</v>
+        <v>372.5177076382767</v>
       </c>
     </row>
     <row r="747">
@@ -13952,7 +13952,7 @@
         </is>
       </c>
       <c r="D751" t="n">
-        <v>1.008079072475748e-05</v>
+        <v>1.008079072475747e-05</v>
       </c>
     </row>
     <row r="752">
@@ -13988,7 +13988,7 @@
         </is>
       </c>
       <c r="D753" t="n">
-        <v>51.14490432640872</v>
+        <v>51.14490460406162</v>
       </c>
     </row>
     <row r="754">
@@ -14078,7 +14078,7 @@
         </is>
       </c>
       <c r="D758" t="n">
-        <v>308.5032760331071</v>
+        <v>308.5032767272393</v>
       </c>
     </row>
     <row r="759">
@@ -14168,7 +14168,7 @@
         </is>
       </c>
       <c r="D763" t="n">
-        <v>305.0326154601613</v>
+        <v>305.0326154601612</v>
       </c>
     </row>
     <row r="764">
@@ -14186,7 +14186,7 @@
         </is>
       </c>
       <c r="D764" t="n">
-        <v>308.5032817617815</v>
+        <v>308.5032817617814</v>
       </c>
     </row>
     <row r="765">
@@ -14204,7 +14204,7 @@
         </is>
       </c>
       <c r="D765" t="n">
-        <v>308.5032817617815</v>
+        <v>308.5032817617814</v>
       </c>
     </row>
     <row r="766">
@@ -14222,7 +14222,7 @@
         </is>
       </c>
       <c r="D766" t="n">
-        <v>308.5032817617815</v>
+        <v>308.5032817617814</v>
       </c>
     </row>
     <row r="767">
@@ -14240,7 +14240,7 @@
         </is>
       </c>
       <c r="D767" t="n">
-        <v>308.5032817617815</v>
+        <v>308.5032817617814</v>
       </c>
     </row>
     <row r="768">
@@ -14258,7 +14258,7 @@
         </is>
       </c>
       <c r="D768" t="n">
-        <v>308.5032817617815</v>
+        <v>308.5032817617814</v>
       </c>
     </row>
     <row r="769">
@@ -14276,7 +14276,7 @@
         </is>
       </c>
       <c r="D769" t="n">
-        <v>316.6014901509508</v>
+        <v>316.6014901509507</v>
       </c>
     </row>
     <row r="770">
@@ -14312,7 +14312,7 @@
         </is>
       </c>
       <c r="D771" t="n">
-        <v>354.7787691791145</v>
+        <v>354.7787691791144</v>
       </c>
     </row>
     <row r="772">
@@ -14330,7 +14330,7 @@
         </is>
       </c>
       <c r="D772" t="n">
-        <v>308.5032817617815</v>
+        <v>308.5032817617814</v>
       </c>
     </row>
     <row r="773">
@@ -14348,7 +14348,7 @@
         </is>
       </c>
       <c r="D773" t="n">
-        <v>308.5032817617815</v>
+        <v>308.5032817617814</v>
       </c>
     </row>
     <row r="774">
@@ -14402,7 +14402,7 @@
         </is>
       </c>
       <c r="D776" t="n">
-        <v>9.6007530711996e-06</v>
+        <v>9.600753071199597e-06</v>
       </c>
     </row>
     <row r="777">
@@ -14420,7 +14420,7 @@
         </is>
       </c>
       <c r="D777" t="n">
-        <v>3.913364075670174e-06</v>
+        <v>3.953429434743109e-06</v>
       </c>
     </row>
     <row r="778">
@@ -14438,7 +14438,7 @@
         </is>
       </c>
       <c r="D778" t="n">
-        <v>48.70943269148376</v>
+        <v>48.70943136932698</v>
       </c>
     </row>
     <row r="779">
@@ -14456,7 +14456,7 @@
         </is>
       </c>
       <c r="D779" t="n">
-        <v>195.20052045809</v>
+        <v>195.2005204580902</v>
       </c>
     </row>
     <row r="780">
@@ -14528,7 +14528,7 @@
         </is>
       </c>
       <c r="D783" t="n">
-        <v>293.8126438404192</v>
+        <v>293.8126405350272</v>
       </c>
     </row>
     <row r="784">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="D784" t="n">
-        <v>337.8845377206336</v>
+        <v>337.8845377206338</v>
       </c>
     </row>
     <row r="785">
@@ -14564,7 +14564,7 @@
         </is>
       </c>
       <c r="D785" t="n">
-        <v>346.8038505314161</v>
+        <v>346.8038505314162</v>
       </c>
     </row>
     <row r="786">
@@ -14618,7 +14618,7 @@
         </is>
       </c>
       <c r="D788" t="n">
-        <v>290.5072528185831</v>
+        <v>301.5252265640613</v>
       </c>
     </row>
     <row r="789">
@@ -14636,7 +14636,7 @@
         </is>
       </c>
       <c r="D789" t="n">
-        <v>293.8126492962996</v>
+        <v>293.8126492962998</v>
       </c>
     </row>
     <row r="790">
@@ -14654,7 +14654,7 @@
         </is>
       </c>
       <c r="D790" t="n">
-        <v>293.8126492962996</v>
+        <v>293.8126492962998</v>
       </c>
     </row>
     <row r="791">
@@ -14672,7 +14672,7 @@
         </is>
       </c>
       <c r="D791" t="n">
-        <v>293.8126492962996</v>
+        <v>293.8126492962998</v>
       </c>
     </row>
     <row r="792">
@@ -14690,7 +14690,7 @@
         </is>
       </c>
       <c r="D792" t="n">
-        <v>293.8126492962996</v>
+        <v>293.8126492962998</v>
       </c>
     </row>
     <row r="793">
@@ -14708,7 +14708,7 @@
         </is>
       </c>
       <c r="D793" t="n">
-        <v>293.8126492962996</v>
+        <v>293.8126492962998</v>
       </c>
     </row>
     <row r="794">
@@ -14726,7 +14726,7 @@
         </is>
       </c>
       <c r="D794" t="n">
-        <v>301.5252287145494</v>
+        <v>301.5252287145496</v>
       </c>
     </row>
     <row r="795">
@@ -14744,7 +14744,7 @@
         </is>
       </c>
       <c r="D795" t="n">
-        <v>8.708166050978586e-06</v>
+        <v>8.708166050978582e-06</v>
       </c>
     </row>
     <row r="796">
@@ -14762,7 +14762,7 @@
         </is>
       </c>
       <c r="D796" t="n">
-        <v>337.8845420747166</v>
+        <v>337.8845420747169</v>
       </c>
     </row>
     <row r="797">
@@ -14780,7 +14780,7 @@
         </is>
       </c>
       <c r="D797" t="n">
-        <v>293.8126492962996</v>
+        <v>293.8126492962998</v>
       </c>
     </row>
     <row r="798">
@@ -14798,7 +14798,7 @@
         </is>
       </c>
       <c r="D798" t="n">
-        <v>293.8126492962996</v>
+        <v>293.8126492962998</v>
       </c>
     </row>
     <row r="799">
@@ -14816,7 +14816,7 @@
         </is>
       </c>
       <c r="D799" t="n">
-        <v>1.828714870706234e-05</v>
+        <v>1.828714870706235e-05</v>
       </c>
     </row>
     <row r="800">
@@ -14852,7 +14852,7 @@
         </is>
       </c>
       <c r="D801" t="n">
-        <v>9.143574353509228e-06</v>
+        <v>9.143574353509225e-06</v>
       </c>
     </row>
     <row r="802">
@@ -14888,7 +14888,7 @@
         </is>
       </c>
       <c r="D803" t="n">
-        <v>46.38993589681375</v>
+        <v>46.38993589681378</v>
       </c>
     </row>
     <row r="804">
@@ -14978,7 +14978,7 @@
         </is>
       </c>
       <c r="D808" t="n">
-        <v>279.8215655623675</v>
+        <v>279.8215655623676</v>
       </c>
     </row>
     <row r="809">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="D809" t="n">
-        <v>321.7947978292528</v>
+        <v>321.7947974095205</v>
       </c>
     </row>
     <row r="810">
@@ -15068,7 +15068,7 @@
         </is>
       </c>
       <c r="D813" t="n">
-        <v>276.6735741129447</v>
+        <v>276.6735741129448</v>
       </c>
     </row>
     <row r="814">
@@ -15086,7 +15086,7 @@
         </is>
       </c>
       <c r="D814" t="n">
-        <v>279.8215707584441</v>
+        <v>279.8215707584442</v>
       </c>
     </row>
     <row r="815">
@@ -15104,7 +15104,7 @@
         </is>
       </c>
       <c r="D815" t="n">
-        <v>279.8215707584441</v>
+        <v>279.8215707584442</v>
       </c>
     </row>
     <row r="816">
@@ -15122,7 +15122,7 @@
         </is>
       </c>
       <c r="D816" t="n">
-        <v>279.8215707584441</v>
+        <v>279.8215707584442</v>
       </c>
     </row>
     <row r="817">
@@ -15140,7 +15140,7 @@
         </is>
       </c>
       <c r="D817" t="n">
-        <v>279.8215707584441</v>
+        <v>279.8215707584442</v>
       </c>
     </row>
     <row r="818">
@@ -15158,7 +15158,7 @@
         </is>
       </c>
       <c r="D818" t="n">
-        <v>279.8215707584441</v>
+        <v>279.8215707584442</v>
       </c>
     </row>
     <row r="819">
@@ -15176,7 +15176,7 @@
         </is>
       </c>
       <c r="D819" t="n">
-        <v>287.1668844901078</v>
+        <v>287.1668844901079</v>
       </c>
     </row>
     <row r="820">
@@ -15194,7 +15194,7 @@
         </is>
       </c>
       <c r="D820" t="n">
-        <v>8.293491477123413e-06</v>
+        <v>8.293491477123415e-06</v>
       </c>
     </row>
     <row r="821">
@@ -15230,7 +15230,7 @@
         </is>
       </c>
       <c r="D822" t="n">
-        <v>279.8215707584441</v>
+        <v>279.8215707584442</v>
       </c>
     </row>
     <row r="823">
@@ -15248,7 +15248,7 @@
         </is>
       </c>
       <c r="D823" t="n">
-        <v>279.8215707584441</v>
+        <v>279.8215707584442</v>
       </c>
     </row>
     <row r="824">
@@ -15266,7 +15266,7 @@
         </is>
       </c>
       <c r="D824" t="n">
-        <v>1.741633210196613e-05</v>
+        <v>1.741633210196614e-05</v>
       </c>
     </row>
     <row r="825">
@@ -15302,7 +15302,7 @@
         </is>
       </c>
       <c r="D826" t="n">
-        <v>8.708166050962164e-06</v>
+        <v>8.708166050962167e-06</v>
       </c>
     </row>
     <row r="827">
@@ -15320,7 +15320,7 @@
         </is>
       </c>
       <c r="D827" t="n">
-        <v>3.585877038317078e-06</v>
+        <v>2.995344534951321e-06</v>
       </c>
     </row>
     <row r="828">
@@ -15356,7 +15356,7 @@
         </is>
       </c>
       <c r="D829" t="n">
-        <v>177.0526269321338</v>
+        <v>177.052626265892</v>
       </c>
     </row>
     <row r="830">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="D834" t="n">
-        <v>306.4712380265628</v>
+        <v>306.4712360278374</v>
       </c>
     </row>
     <row r="835">
@@ -15518,7 +15518,7 @@
         </is>
       </c>
       <c r="D838" t="n">
-        <v>261.4999166164208</v>
+        <v>263.4986420124288</v>
       </c>
     </row>
     <row r="839">
@@ -15698,7 +15698,7 @@
         </is>
       </c>
       <c r="D848" t="n">
-        <v>266.4967340557246</v>
+        <v>266.4967340557245</v>
       </c>
     </row>
     <row r="849">
@@ -15716,7 +15716,7 @@
         </is>
       </c>
       <c r="D849" t="n">
-        <v>1.658698295425787e-05</v>
+        <v>1.658698295425786e-05</v>
       </c>
     </row>
     <row r="850">
@@ -15752,7 +15752,7 @@
         </is>
       </c>
       <c r="D851" t="n">
-        <v>8.293491477109029e-06</v>
+        <v>8.293491477109027e-06</v>
       </c>
     </row>
     <row r="852">
@@ -15770,7 +15770,7 @@
         </is>
       </c>
       <c r="D852" t="n">
-        <v>3.415120988875121e-06</v>
+        <v>1.973039173571893e-06</v>
       </c>
     </row>
     <row r="853">
@@ -15788,7 +15788,7 @@
         </is>
       </c>
       <c r="D853" t="n">
-        <v>42.07703936209329</v>
+        <v>42.07703898138368</v>
       </c>
     </row>
     <row r="854">
@@ -15878,7 +15878,7 @@
         </is>
       </c>
       <c r="D858" t="n">
-        <v>253.8064086734097</v>
+        <v>253.8064077216357</v>
       </c>
     </row>
     <row r="859">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="D859" t="n">
-        <v>291.8773676455597</v>
+        <v>291.8773676455596</v>
       </c>
     </row>
     <row r="860">
@@ -16076,7 +16076,7 @@
         </is>
       </c>
       <c r="D869" t="n">
-        <v>260.4688294695531</v>
+        <v>260.468829469553</v>
       </c>
     </row>
     <row r="870">
@@ -16094,7 +16094,7 @@
         </is>
       </c>
       <c r="D870" t="n">
-        <v>7.522441249096954e-06</v>
+        <v>7.522441249096953e-06</v>
       </c>
     </row>
     <row r="871">
@@ -16112,7 +16112,7 @@
         </is>
       </c>
       <c r="D871" t="n">
-        <v>291.8773714067803</v>
+        <v>291.8773714067802</v>
       </c>
     </row>
     <row r="872">
@@ -16166,7 +16166,7 @@
         </is>
       </c>
       <c r="D874" t="n">
-        <v>1.579712662310992e-05</v>
+        <v>1.579712662310991e-05</v>
       </c>
     </row>
     <row r="875">
@@ -16220,7 +16220,7 @@
         </is>
       </c>
       <c r="D877" t="n">
-        <v>3.219534309819561e-06</v>
+        <v>3.252496179882419e-06</v>
       </c>
     </row>
     <row r="878">
@@ -16238,7 +16238,7 @@
         </is>
       </c>
       <c r="D878" t="n">
-        <v>40.07337045885934</v>
+        <v>40.07337045885939</v>
       </c>
     </row>
     <row r="879">
@@ -16328,7 +16328,7 @@
         </is>
       </c>
       <c r="D883" t="n">
-        <v>241.720388307145</v>
+        <v>241.7203883071452</v>
       </c>
     </row>
     <row r="884">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="D884" t="n">
-        <v>277.9784453775725</v>
+        <v>277.9784453775727</v>
       </c>
     </row>
     <row r="885">
@@ -16364,7 +16364,7 @@
         </is>
       </c>
       <c r="D885" t="n">
-        <v>285.3163861006237</v>
+        <v>285.3163861006238</v>
       </c>
     </row>
     <row r="886">
@@ -16418,7 +16418,7 @@
         </is>
       </c>
       <c r="D888" t="n">
-        <v>239.0010358397633</v>
+        <v>239.0010358397635</v>
       </c>
     </row>
     <row r="889">
@@ -16436,7 +16436,7 @@
         </is>
       </c>
       <c r="D889" t="n">
-        <v>241.7203937021628</v>
+        <v>241.7203937021629</v>
       </c>
     </row>
     <row r="890">
@@ -16454,7 +16454,7 @@
         </is>
       </c>
       <c r="D890" t="n">
-        <v>241.7203937021628</v>
+        <v>241.7203937021629</v>
       </c>
     </row>
     <row r="891">
@@ -16472,7 +16472,7 @@
         </is>
       </c>
       <c r="D891" t="n">
-        <v>241.7203937021628</v>
+        <v>241.7203937021629</v>
       </c>
     </row>
     <row r="892">
@@ -16490,7 +16490,7 @@
         </is>
       </c>
       <c r="D892" t="n">
-        <v>241.7203937021628</v>
+        <v>241.7203937021629</v>
       </c>
     </row>
     <row r="893">
@@ -16508,7 +16508,7 @@
         </is>
       </c>
       <c r="D893" t="n">
-        <v>241.7203937021628</v>
+        <v>241.7203937021629</v>
       </c>
     </row>
     <row r="894">
@@ -16526,7 +16526,7 @@
         </is>
       </c>
       <c r="D894" t="n">
-        <v>248.0655518765872</v>
+        <v>248.0655518765874</v>
       </c>
     </row>
     <row r="895">
@@ -16562,7 +16562,7 @@
         </is>
       </c>
       <c r="D896" t="n">
-        <v>277.9784489596874</v>
+        <v>277.9784489596875</v>
       </c>
     </row>
     <row r="897">
@@ -16580,7 +16580,7 @@
         </is>
       </c>
       <c r="D897" t="n">
-        <v>241.7203937021628</v>
+        <v>241.7203937021629</v>
       </c>
     </row>
     <row r="898">
@@ -16598,7 +16598,7 @@
         </is>
       </c>
       <c r="D898" t="n">
-        <v>241.7203937021628</v>
+        <v>241.7203937021629</v>
       </c>
     </row>
     <row r="899">
@@ -16652,7 +16652,7 @@
         </is>
       </c>
       <c r="D901" t="n">
-        <v>7.522441249087111e-06</v>
+        <v>7.52244124908711e-06</v>
       </c>
     </row>
   </sheetData>
